--- a/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
+++ b/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,9 @@
     <sheet name="6. Penados por delito CP der." sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="7. Penados por delito y sexo" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="8. Extranjeros por sexo" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Hoja11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Hoja11" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t xml:space="preserve">ESTADÍSTICA PENITENCIARIA</t>
   </si>
@@ -309,6 +311,30 @@
   </si>
   <si>
     <t xml:space="preserve">Porcentaje de Extranjeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extranjeros total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extranjeros hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extranjeros mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcentaje hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcentaje mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total presos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total nacionales</t>
   </si>
   <si>
     <t xml:space="preserve">AÑO</t>
@@ -323,12 +349,13 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -346,101 +373,36 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -449,6 +411,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -457,12 +420,14 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -470,6 +435,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -477,12 +443,14 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -490,6 +458,7 @@
       <color rgb="FF3F97BB"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -497,18 +466,21 @@
       <color rgb="FF575757"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF575757"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF006895"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -517,6 +489,7 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -524,6 +497,7 @@
       <color rgb="FF3F97BB"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -531,54 +505,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFF0F6F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDED9CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -589,7 +521,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDED9CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -605,27 +537,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -688,7 +605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,241 +629,197 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -958,53 +831,37 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFF0F6F9"/>
+      <rgbColor rgb="FFF0F0F0"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF006895"/>
@@ -1018,13 +875,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF0F0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFDED9CA"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFDED9CA"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1061,7 +918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$B$1</c:f>
+              <c:f>Hoja11!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1081,6 +938,18 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1183,7 +1052,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$C$1</c:f>
+              <c:f>Hoja11!$C$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1203,6 +1072,18 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1301,9 +1182,9 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="14898747"/>
-        <c:axId val="11952422"/>
+        <c:overlap val="100"/>
+        <c:axId val="20225200"/>
+        <c:axId val="818305"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1313,7 +1194,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$D$1</c:f>
+              <c:f>Hoja11!$D$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1338,6 +1219,18 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1443,12 +1336,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="61355841"/>
-        <c:axId val="47415481"/>
+        <c:marker val="0"/>
+        <c:axId val="71326961"/>
+        <c:axId val="31873349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14898747"/>
+        <c:axId val="20225200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,14 +1369,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11952422"/>
+        <c:crossAx val="818305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11952422"/>
+        <c:axId val="818305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,6 +1391,38 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20225200"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="71326961"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1520,17 +1445,20 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14898747"/>
+        <c:crossAx val="31873349"/>
         <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="61355841"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31873349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1552,51 +1480,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47415481"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="47415481"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61355841"/>
+        <c:crossAx val="71326961"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1654,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1665,13 +1549,12 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="0" r="43082" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="0"/>
-          <a:ext cx="1630440" cy="780120"/>
+          <a:ext cx="1630080" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1707,8 +1590,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12033720" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="12025440" y="0"/>
+        <a:ext cx="5753160" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1728,8 +1611,8 @@
   </sheetPr>
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1934,7 +1817,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,10 +2354,393 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>22878</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>20753</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2125</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>90.71</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>67274</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">G2-B2</f>
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>26416</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>23996</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2420</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>90.84</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>73950</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">G3-B3</f>
+        <v>47534</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>27162</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>24856</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2306</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>91.51</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>76079</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">G4-B4</f>
+        <v>48917</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>26750</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>24432</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2318</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>91.33</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>75434</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">G5-B5</f>
+        <v>48684</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>24817</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>22877</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>92.18</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>71387</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">G6-B6</f>
+        <v>46570</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>22981</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>21159</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>92.07</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>69037</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">G7-B7</f>
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>21315</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>19660</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>92.24</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>67404</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">G8-B8</f>
+        <v>46089</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>19849</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>18302</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1547</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>92.21</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>65535</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">G9-B9</f>
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>18222</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16812</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>92.26</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>62757</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">G10-B10</f>
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16985</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>15735</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>92.64</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>59970</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">G11-B11</f>
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="46" t="n">
+        <v>16761</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>15500</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1261</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>92.48</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>59577</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">G12-B12</f>
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>16634</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>15365</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>59262</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">G13-B13</f>
+        <v>42628</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="C1:F1 G4"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2487,101 +2753,101 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="n">
+      <c r="A2" s="47" t="n">
         <v>2007</v>
       </c>
-      <c r="B2" s="46" t="n">
+      <c r="B2" s="47" t="n">
         <v>61508</v>
       </c>
-      <c r="C2" s="46" t="n">
+      <c r="C2" s="47" t="n">
         <v>5592</v>
       </c>
-      <c r="D2" s="46" t="n">
+      <c r="D2" s="47" t="n">
         <v>67100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="47" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="47" t="n">
         <v>67608</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="47" t="n">
         <v>5950</v>
       </c>
-      <c r="D3" s="46" t="n">
+      <c r="D3" s="47" t="n">
         <v>73558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="47" t="n">
         <v>2009</v>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="48" t="n">
         <v>70003</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="47" t="n">
         <v>6076</v>
       </c>
-      <c r="D4" s="46" t="n">
+      <c r="D4" s="47" t="n">
         <v>76079</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="47" t="n">
         <v>2010</v>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="47" t="n">
         <v>69494</v>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="47" t="n">
         <v>5940</v>
       </c>
-      <c r="D5" s="46" t="n">
+      <c r="D5" s="47" t="n">
         <f aca="false">C5+B5</f>
         <v>75434</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="47" t="n">
         <v>2011</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="47" t="n">
         <v>65970</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>5417</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="47" t="n">
         <v>71387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="47" t="n">
         <v>2012</v>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="47" t="n">
         <v>63772</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="47" t="n">
         <v>5265</v>
       </c>
-      <c r="D7" s="46" t="n">
+      <c r="D7" s="47" t="n">
         <v>69037</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -2590,86 +2856,86 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="47" t="n">
         <v>2013</v>
       </c>
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="47" t="n">
         <v>62273</v>
       </c>
-      <c r="C8" s="46" t="n">
+      <c r="C8" s="47" t="n">
         <v>5131</v>
       </c>
-      <c r="D8" s="46" t="n">
+      <c r="D8" s="47" t="n">
         <v>67404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="47" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="47" t="n">
         <v>60515</v>
       </c>
-      <c r="C9" s="46" t="n">
+      <c r="C9" s="47" t="n">
         <v>5020</v>
       </c>
-      <c r="D9" s="46" t="n">
+      <c r="D9" s="47" t="n">
         <v>65535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="n">
+      <c r="A10" s="47" t="n">
         <v>2015</v>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="47" t="n">
         <v>57910</v>
       </c>
-      <c r="C10" s="46" t="n">
+      <c r="C10" s="47" t="n">
         <v>4847</v>
       </c>
-      <c r="D10" s="46" t="n">
+      <c r="D10" s="47" t="n">
         <v>62757</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="n">
+      <c r="A11" s="47" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="47" t="n">
         <v>55513</v>
       </c>
-      <c r="C11" s="46" t="n">
+      <c r="C11" s="47" t="n">
         <v>4457</v>
       </c>
-      <c r="D11" s="46" t="n">
+      <c r="D11" s="47" t="n">
         <v>59970</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
+      <c r="A12" s="47" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="47" t="n">
         <v>55107</v>
       </c>
-      <c r="C12" s="46" t="n">
+      <c r="C12" s="47" t="n">
         <v>4470</v>
       </c>
-      <c r="D12" s="46" t="n">
+      <c r="D12" s="47" t="n">
         <v>59577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="n">
+      <c r="A13" s="47" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="46" t="n">
+      <c r="B13" s="47" t="n">
         <v>54786</v>
       </c>
-      <c r="C13" s="46" t="n">
+      <c r="C13" s="47" t="n">
         <v>4476</v>
       </c>
-      <c r="D13" s="46" t="n">
+      <c r="D13" s="47" t="n">
         <v>59262</v>
       </c>
     </row>
@@ -2678,10 +2944,35 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2693,12 +2984,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +3049,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3094,7 +3385,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C1:F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3220,7 +3511,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3364,7 +3655,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3532,7 +3823,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3700,7 +3991,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3997,7 +4288,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="C1:F1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
+++ b/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t xml:space="preserve">ESTADÍSTICA PENITENCIARIA</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centros Penitenciarios</t>
   </si>
   <si>
     <t xml:space="preserve">Andalucía</t>
@@ -349,13 +352,12 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -373,36 +375,101 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -411,7 +478,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -420,14 +486,12 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -435,7 +499,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -443,14 +506,12 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -458,7 +519,6 @@
       <color rgb="FF3F97BB"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -466,21 +526,18 @@
       <color rgb="FF575757"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF575757"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF006895"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -489,7 +546,6 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -497,7 +553,6 @@
       <color rgb="FF3F97BB"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -505,12 +560,54 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFF0F6F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDED9CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -521,7 +618,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFDED9CA"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -537,12 +634,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -605,7 +717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,192 +741,244 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="28" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="28" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,37 +995,53 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="23">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFF0F6F9"/>
-      <rgbColor rgb="FFF0F0F0"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF006895"/>
@@ -875,13 +1055,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF0F0F0"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFDED9CA"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFDED9CA"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -918,7 +1098,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$B$1:$B$1</c:f>
+              <c:f>Hoja11!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -938,17 +1118,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1052,7 +1221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$C$1:$C$1</c:f>
+              <c:f>Hoja11!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,17 +1241,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1183,8 +1341,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="20225200"/>
-        <c:axId val="818305"/>
+        <c:axId val="21072007"/>
+        <c:axId val="99556673"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1194,7 +1352,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja11!$D$1:$D$1</c:f>
+              <c:f>Hoja11!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,17 +1377,6 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1337,11 +1484,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="71326961"/>
-        <c:axId val="31873349"/>
+        <c:axId val="31738245"/>
+        <c:axId val="633127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20225200"/>
+        <c:axId val="21072007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,14 +1516,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="818305"/>
+        <c:crossAx val="99556673"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="818305"/>
+        <c:axId val="99556673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,11 +1560,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20225200"/>
+        <c:crossAx val="21072007"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="71326961"/>
+        <c:axId val="31738245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,14 +1592,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31873349"/>
+        <c:crossAx val="633127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31873349"/>
+        <c:axId val="633127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71326961"/>
+        <c:crossAx val="31738245"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1538,9 +1685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1554,7 +1701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="0"/>
-          <a:ext cx="1630080" cy="779760"/>
+          <a:ext cx="1630440" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,9 +1727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1591,7 +1738,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12025440" y="0"/>
-        <a:ext cx="5753160" cy="3239280"/>
+        <a:ext cx="5752800" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1827,28 +1974,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>90</v>
+      <c r="A3" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
@@ -1872,462 +2019,462 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="30" t="n">
+        <v>13293</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>1066</v>
+      </c>
+      <c r="D8" s="30" t="n">
+        <v>14359</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" s="42" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="30" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C9" s="30" t="n">
+        <v>106</v>
+      </c>
+      <c r="D9" s="30" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E9" s="41" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="G9" s="43" t="n">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>1127</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>110</v>
+      </c>
+      <c r="D10" s="30" t="n">
+        <v>1237</v>
+      </c>
+      <c r="E10" s="41" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F10" s="41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="30" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>140</v>
+      </c>
+      <c r="D11" s="30" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E11" s="41" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F11" s="41" t="n">
         <v>20</v>
       </c>
-      <c r="B8" s="29" t="n">
-        <v>13293</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>1066</v>
-      </c>
-      <c r="D8" s="29" t="n">
-        <v>14359</v>
-      </c>
-      <c r="E8" s="40" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F8" s="40" t="n">
+      <c r="G11" s="43" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="30" t="n">
+        <v>3055</v>
+      </c>
+      <c r="C12" s="30" t="n">
+        <v>249</v>
+      </c>
+      <c r="D12" s="30" t="n">
+        <v>3304</v>
+      </c>
+      <c r="E12" s="41" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F12" s="41" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="30" t="n">
+        <v>500</v>
+      </c>
+      <c r="C13" s="30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="30" t="n">
+        <v>525</v>
+      </c>
+      <c r="E13" s="41" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F13" s="41" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="43" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>4040</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>302</v>
+      </c>
+      <c r="D14" s="30" t="n">
+        <v>4342</v>
+      </c>
+      <c r="E14" s="41" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F14" s="41" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="G14" s="43" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="30" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C15" s="30" t="n">
+        <v>34</v>
+      </c>
+      <c r="D15" s="30" t="n">
+        <v>1789</v>
+      </c>
+      <c r="E15" s="41" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F15" s="41" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G15" s="43" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="30" t="n">
+        <v>8201</v>
+      </c>
+      <c r="C16" s="30" t="n">
+        <v>609</v>
+      </c>
+      <c r="D16" s="30" t="n">
+        <v>8810</v>
+      </c>
+      <c r="E16" s="41" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="F16" s="41" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="G16" s="43" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="30" t="n">
+        <v>6131</v>
+      </c>
+      <c r="C17" s="30" t="n">
+        <v>571</v>
+      </c>
+      <c r="D17" s="30" t="n">
+        <v>6702</v>
+      </c>
+      <c r="E17" s="41" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F17" s="41" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G17" s="43" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="30" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C18" s="30" t="n">
+        <v>62</v>
+      </c>
+      <c r="D18" s="30" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E18" s="41" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F18" s="41" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G18" s="43" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="30" t="n">
+        <v>3268</v>
+      </c>
+      <c r="C19" s="30" t="n">
+        <v>216</v>
+      </c>
+      <c r="D19" s="30" t="n">
+        <v>3484</v>
+      </c>
+      <c r="E19" s="41" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F19" s="41" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G19" s="43" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="30" t="n">
+        <v>7359</v>
+      </c>
+      <c r="C20" s="30" t="n">
+        <v>914</v>
+      </c>
+      <c r="D20" s="30" t="n">
+        <v>8273</v>
+      </c>
+      <c r="E20" s="41" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F20" s="41" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="G20" s="43" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="30" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C21" s="30" t="n">
+        <v>123</v>
+      </c>
+      <c r="D21" s="30" t="n">
+        <v>1633</v>
+      </c>
+      <c r="E21" s="41" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F21" s="41" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G21" s="43" t="n">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="30" t="n">
+        <v>284</v>
+      </c>
+      <c r="C22" s="30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" s="30" t="n">
+        <v>309</v>
+      </c>
+      <c r="E22" s="41" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F22" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="G22" s="43" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="30" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C23" s="30" t="n">
+        <v>133</v>
+      </c>
+      <c r="D23" s="30" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E23" s="41" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F23" s="41" t="n">
         <v>18</v>
       </c>
-      <c r="G8" s="41" t="n">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="29" t="n">
-        <v>1893</v>
-      </c>
-      <c r="C9" s="29" t="n">
-        <v>106</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E9" s="40" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F9" s="40" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="G9" s="42" t="n">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="29" t="n">
-        <v>1127</v>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>110</v>
-      </c>
-      <c r="D10" s="29" t="n">
-        <v>1237</v>
-      </c>
-      <c r="E10" s="40" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="F10" s="40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="G10" s="42" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="29" t="n">
-        <v>1556</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>140</v>
-      </c>
-      <c r="D11" s="29" t="n">
-        <v>1696</v>
-      </c>
-      <c r="E11" s="40" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F11" s="40" t="n">
+      <c r="G23" s="43" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="30" t="n">
+        <v>315</v>
+      </c>
+      <c r="C24" s="30" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="42" t="n">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="29" t="n">
-        <v>3055</v>
-      </c>
-      <c r="C12" s="29" t="n">
-        <v>249</v>
-      </c>
-      <c r="D12" s="29" t="n">
-        <v>3304</v>
-      </c>
-      <c r="E12" s="40" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="G12" s="42" t="n">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="29" t="n">
-        <v>500</v>
-      </c>
-      <c r="C13" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="29" t="n">
-        <v>525</v>
-      </c>
-      <c r="E13" s="40" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="F13" s="40" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="42" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="29" t="n">
-        <v>4040</v>
-      </c>
-      <c r="C14" s="29" t="n">
-        <v>302</v>
-      </c>
-      <c r="D14" s="29" t="n">
-        <v>4342</v>
-      </c>
-      <c r="E14" s="40" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="F14" s="40" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="G14" s="42" t="n">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="29" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C15" s="29" t="n">
-        <v>34</v>
-      </c>
-      <c r="D15" s="29" t="n">
-        <v>1789</v>
-      </c>
-      <c r="E15" s="40" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="G15" s="42" t="n">
+      <c r="D24" s="30" t="n">
+        <v>335</v>
+      </c>
+      <c r="E24" s="41" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F24" s="41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="43" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="30" t="n">
+        <v>179</v>
+      </c>
+      <c r="C25" s="30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" s="30" t="n">
+        <v>190</v>
+      </c>
+      <c r="E25" s="41" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F25" s="41" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G25" s="43" t="n">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>255</v>
+      </c>
+      <c r="C26" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="30" t="n">
+        <v>261</v>
+      </c>
+      <c r="E26" s="41" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F26" s="41" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G26" s="43" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="44" t="n">
+        <v>56892</v>
+      </c>
+      <c r="C27" s="44" t="n">
+        <v>4722</v>
+      </c>
+      <c r="D27" s="44" t="n">
+        <v>61614</v>
+      </c>
+      <c r="E27" s="45" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="29" t="n">
-        <v>8201</v>
-      </c>
-      <c r="C16" s="29" t="n">
-        <v>609</v>
-      </c>
-      <c r="D16" s="29" t="n">
-        <v>8810</v>
-      </c>
-      <c r="E16" s="40" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="F16" s="40" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="G16" s="42" t="n">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="29" t="n">
-        <v>6131</v>
-      </c>
-      <c r="C17" s="29" t="n">
-        <v>571</v>
-      </c>
-      <c r="D17" s="29" t="n">
-        <v>6702</v>
-      </c>
-      <c r="E17" s="40" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="G17" s="42" t="n">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="29" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C18" s="29" t="n">
-        <v>62</v>
-      </c>
-      <c r="D18" s="29" t="n">
-        <v>1093</v>
-      </c>
-      <c r="E18" s="40" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="G18" s="42" t="n">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="29" t="n">
-        <v>3268</v>
-      </c>
-      <c r="C19" s="29" t="n">
-        <v>216</v>
-      </c>
-      <c r="D19" s="29" t="n">
-        <v>3484</v>
-      </c>
-      <c r="E19" s="40" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="G19" s="42" t="n">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="29" t="n">
-        <v>7359</v>
-      </c>
-      <c r="C20" s="29" t="n">
-        <v>914</v>
-      </c>
-      <c r="D20" s="29" t="n">
-        <v>8273</v>
-      </c>
-      <c r="E20" s="40" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="G20" s="42" t="n">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="29" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C21" s="29" t="n">
-        <v>123</v>
-      </c>
-      <c r="D21" s="29" t="n">
-        <v>1633</v>
-      </c>
-      <c r="E21" s="40" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="G21" s="42" t="n">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="29" t="n">
-        <v>284</v>
-      </c>
-      <c r="C22" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D22" s="29" t="n">
-        <v>309</v>
-      </c>
-      <c r="E22" s="40" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F22" s="40" t="n">
-        <v>28</v>
-      </c>
-      <c r="G22" s="42" t="n">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="29" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C23" s="29" t="n">
-        <v>133</v>
-      </c>
-      <c r="D23" s="29" t="n">
-        <v>1273</v>
-      </c>
-      <c r="E23" s="40" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <v>18</v>
-      </c>
-      <c r="G23" s="42" t="n">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="29" t="n">
-        <v>315</v>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" s="29" t="n">
-        <v>335</v>
-      </c>
-      <c r="E24" s="40" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F24" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="G24" s="42" t="n">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="29" t="n">
-        <v>179</v>
-      </c>
-      <c r="C25" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" s="29" t="n">
-        <v>190</v>
-      </c>
-      <c r="E25" s="40" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F25" s="40" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="G25" s="42" t="n">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="29" t="n">
-        <v>255</v>
-      </c>
-      <c r="C26" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" s="29" t="n">
-        <v>261</v>
-      </c>
-      <c r="E26" s="40" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F26" s="40" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="G26" s="42" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="43" t="n">
-        <v>56892</v>
-      </c>
-      <c r="C27" s="43" t="n">
-        <v>4722</v>
-      </c>
-      <c r="D27" s="43" t="n">
-        <v>61614</v>
-      </c>
-      <c r="E27" s="44" t="n">
-        <v>29</v>
-      </c>
-      <c r="F27" s="44" t="n">
+      <c r="F27" s="45" t="n">
         <v>28.7</v>
       </c>
-      <c r="G27" s="45" t="n">
+      <c r="G27" s="46" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2357,44 +2504,47 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +2821,7 @@
       <c r="A12" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="47" t="n">
         <v>16761</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2726,8 +2876,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2753,101 +2903,101 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="n">
+      <c r="A2" s="48" t="n">
         <v>2007</v>
       </c>
-      <c r="B2" s="47" t="n">
+      <c r="B2" s="48" t="n">
         <v>61508</v>
       </c>
-      <c r="C2" s="47" t="n">
+      <c r="C2" s="48" t="n">
         <v>5592</v>
       </c>
-      <c r="D2" s="47" t="n">
+      <c r="D2" s="48" t="n">
         <v>67100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="n">
+      <c r="A3" s="48" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="B3" s="48" t="n">
         <v>67608</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="48" t="n">
         <v>5950</v>
       </c>
-      <c r="D3" s="47" t="n">
+      <c r="D3" s="48" t="n">
         <v>73558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="n">
+      <c r="A4" s="48" t="n">
         <v>2009</v>
       </c>
-      <c r="B4" s="48" t="n">
+      <c r="B4" s="49" t="n">
         <v>70003</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="48" t="n">
         <v>6076</v>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="48" t="n">
         <v>76079</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="n">
+      <c r="A5" s="48" t="n">
         <v>2010</v>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="48" t="n">
         <v>69494</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="48" t="n">
         <v>5940</v>
       </c>
-      <c r="D5" s="47" t="n">
+      <c r="D5" s="48" t="n">
         <f aca="false">C5+B5</f>
         <v>75434</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="n">
+      <c r="A6" s="48" t="n">
         <v>2011</v>
       </c>
-      <c r="B6" s="47" t="n">
+      <c r="B6" s="48" t="n">
         <v>65970</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="48" t="n">
         <v>5417</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="48" t="n">
         <v>71387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="48" t="n">
         <v>2012</v>
       </c>
-      <c r="B7" s="47" t="n">
+      <c r="B7" s="48" t="n">
         <v>63772</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="48" t="n">
         <v>5265</v>
       </c>
-      <c r="D7" s="47" t="n">
+      <c r="D7" s="48" t="n">
         <v>69037</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -2856,86 +3006,86 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="n">
+      <c r="A8" s="48" t="n">
         <v>2013</v>
       </c>
-      <c r="B8" s="47" t="n">
+      <c r="B8" s="48" t="n">
         <v>62273</v>
       </c>
-      <c r="C8" s="47" t="n">
+      <c r="C8" s="48" t="n">
         <v>5131</v>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="48" t="n">
         <v>67404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="n">
+      <c r="A9" s="48" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" s="47" t="n">
+      <c r="B9" s="48" t="n">
         <v>60515</v>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="48" t="n">
         <v>5020</v>
       </c>
-      <c r="D9" s="47" t="n">
+      <c r="D9" s="48" t="n">
         <v>65535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="n">
+      <c r="A10" s="48" t="n">
         <v>2015</v>
       </c>
-      <c r="B10" s="47" t="n">
+      <c r="B10" s="48" t="n">
         <v>57910</v>
       </c>
-      <c r="C10" s="47" t="n">
+      <c r="C10" s="48" t="n">
         <v>4847</v>
       </c>
-      <c r="D10" s="47" t="n">
+      <c r="D10" s="48" t="n">
         <v>62757</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="n">
+      <c r="A11" s="48" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="47" t="n">
+      <c r="B11" s="48" t="n">
         <v>55513</v>
       </c>
-      <c r="C11" s="47" t="n">
+      <c r="C11" s="48" t="n">
         <v>4457</v>
       </c>
-      <c r="D11" s="47" t="n">
+      <c r="D11" s="48" t="n">
         <v>59970</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="n">
+      <c r="A12" s="48" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="47" t="n">
+      <c r="B12" s="48" t="n">
         <v>55107</v>
       </c>
-      <c r="C12" s="47" t="n">
+      <c r="C12" s="48" t="n">
         <v>4470</v>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="48" t="n">
         <v>59577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="n">
+      <c r="A13" s="48" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="47" t="n">
+      <c r="B13" s="48" t="n">
         <v>54786</v>
       </c>
-      <c r="C13" s="47" t="n">
+      <c r="C13" s="48" t="n">
         <v>4476</v>
       </c>
-      <c r="D13" s="47" t="n">
+      <c r="D13" s="48" t="n">
         <v>59262</v>
       </c>
     </row>
@@ -2944,8 +3094,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2963,6 +3113,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2970,8 +3123,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3046,16 +3199,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="23.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="13" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="30.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3237,13 @@
       <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>13293</v>
@@ -3096,10 +3254,13 @@
       <c r="D6" s="20" t="n">
         <v>14359</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>1893</v>
@@ -3110,10 +3271,13 @@
       <c r="D7" s="20" t="n">
         <v>1999</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>1127</v>
@@ -3124,10 +3288,13 @@
       <c r="D8" s="20" t="n">
         <v>1237</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>1556</v>
@@ -3138,10 +3305,13 @@
       <c r="D9" s="20" t="n">
         <v>1696</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>3055</v>
@@ -3152,10 +3322,13 @@
       <c r="D10" s="20" t="n">
         <v>3304</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>500</v>
@@ -3163,13 +3336,16 @@
       <c r="C11" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="22" t="n">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>4040</v>
@@ -3180,10 +3356,13 @@
       <c r="D12" s="20" t="n">
         <v>4342</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="18" t="n">
         <v>1755</v>
@@ -3194,10 +3373,13 @@
       <c r="D13" s="20" t="n">
         <v>1789</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="18" t="n">
         <v>8201</v>
@@ -3208,10 +3390,13 @@
       <c r="D14" s="20" t="n">
         <v>8810</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="18" t="n">
         <v>6131</v>
@@ -3222,10 +3407,13 @@
       <c r="D15" s="20" t="n">
         <v>6702</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="18" t="n">
         <v>1031</v>
@@ -3236,10 +3424,13 @@
       <c r="D16" s="20" t="n">
         <v>1093</v>
       </c>
+      <c r="E16" s="13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="18" t="n">
         <v>3268</v>
@@ -3250,10 +3441,13 @@
       <c r="D17" s="20" t="n">
         <v>3484</v>
       </c>
+      <c r="E17" s="13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="19" t="n">
         <v>7359</v>
@@ -3261,13 +3455,16 @@
       <c r="C18" s="19" t="n">
         <v>914</v>
       </c>
-      <c r="D18" s="21" t="n">
+      <c r="D18" s="22" t="n">
         <v>8273</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18" t="n">
         <v>1510</v>
@@ -3278,10 +3475,13 @@
       <c r="D19" s="20" t="n">
         <v>1633</v>
       </c>
+      <c r="E19" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="18" t="n">
         <v>284</v>
@@ -3292,10 +3492,13 @@
       <c r="D20" s="20" t="n">
         <v>309</v>
       </c>
+      <c r="E20" s="13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>1140</v>
@@ -3303,13 +3506,16 @@
       <c r="C21" s="19" t="n">
         <v>133</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="22" t="n">
         <v>1273</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18" t="n">
         <v>315</v>
@@ -3320,10 +3526,13 @@
       <c r="D22" s="20" t="n">
         <v>335</v>
       </c>
+      <c r="E22" s="13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="19" t="n">
         <v>179</v>
@@ -3331,13 +3540,16 @@
       <c r="C23" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="22" t="n">
         <v>190</v>
+      </c>
+      <c r="E23" s="13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="19" t="n">
         <v>255</v>
@@ -3345,22 +3557,28 @@
       <c r="C24" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="22" t="n">
         <v>261</v>
       </c>
+      <c r="E24" s="13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="23" t="n">
+      <c r="A25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="24" t="n">
         <v>56892</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="24" t="n">
         <v>4722</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="25" t="n">
         <v>61614</v>
+      </c>
+      <c r="E25" s="13" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3395,33 +3613,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>40</v>
+      <c r="A3" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>7032</v>
@@ -3435,7 +3653,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>48705</v>
@@ -3449,7 +3667,7 @@
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="19" t="n">
         <v>546</v>
@@ -3457,13 +3675,13 @@
       <c r="C8" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="D8" s="21" t="n">
+      <c r="D8" s="22" t="n">
         <v>577</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="19" t="n">
         <v>609</v>
@@ -3471,21 +3689,21 @@
       <c r="C9" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="22" t="n">
         <v>642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="23" t="n">
+      <c r="A10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24" t="n">
         <v>56892</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="24" t="n">
         <v>4722</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="25" t="n">
         <v>61614</v>
       </c>
     </row>
@@ -3521,41 +3739,41 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>47</v>
+      <c r="A3" s="27" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" s="30" t="n">
         <v>972</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>82</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>1054</v>
       </c>
       <c r="G7" s="13"/>
@@ -3565,17 +3783,17 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <v>37049</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="31" t="n">
         <v>2656</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>39705</v>
       </c>
       <c r="G8" s="13"/>
@@ -3585,17 +3803,17 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="29" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="30" t="n">
         <v>7163</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>968</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="32" t="n">
         <v>8131</v>
       </c>
       <c r="G9" s="13"/>
@@ -3607,7 +3825,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="18" t="n">
         <v>3521</v>
@@ -3620,16 +3838,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="23" t="n">
+      <c r="A11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="24" t="n">
         <v>48705</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="24" t="n">
         <v>4006</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="25" t="n">
         <v>52711</v>
       </c>
     </row>
@@ -3665,139 +3883,139 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>53</v>
+      <c r="A3" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="30" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" s="31" t="n">
         <v>305</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="29" t="n">
+        <v>57</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <v>4187</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="31" t="n">
         <v>281</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>4468</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="29" t="n">
+        <v>58</v>
+      </c>
+      <c r="B9" s="30" t="n">
         <v>7383</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>571</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="32" t="n">
         <v>7954</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="29" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" s="30" t="n">
         <v>16455</v>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="30" t="n">
         <v>1401</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>17856</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="29" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="30" t="n">
         <v>18518</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="30" t="n">
         <v>1605</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="32" t="n">
         <v>20123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="B12" s="30" t="n">
         <v>1852</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="31" t="n">
         <v>136</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="32" t="n">
         <v>1988</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="30" t="n">
+        <v>62</v>
+      </c>
+      <c r="B13" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="23" t="n">
+      <c r="A14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="24" t="n">
         <v>48705</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="24" t="n">
         <v>4006</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="25" t="n">
         <v>52711</v>
       </c>
     </row>
@@ -3833,139 +4051,139 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>62</v>
+      <c r="A3" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="29" t="n">
+      <c r="A7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="30" t="n">
         <v>329</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="30" t="n">
         <v>23</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>352</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="29" t="n">
+      <c r="A8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <v>804</v>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="30" t="n">
         <v>82</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>886</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="29" t="n">
+      <c r="A9" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="30" t="n">
         <v>1031</v>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="30" t="n">
         <v>96</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="32" t="n">
         <v>1127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="29" t="n">
+      <c r="A10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="30" t="n">
         <v>2331</v>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="30" t="n">
         <v>241</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>2572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="29" t="n">
+      <c r="A11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="30" t="n">
         <v>2320</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="30" t="n">
         <v>197</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="32" t="n">
         <v>2517</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="29" t="n">
+      <c r="A12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="30" t="n">
         <v>217</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="32" t="n">
         <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="29" t="n">
+      <c r="A13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D13" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="29" t="n">
+      <c r="A14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="30" t="n">
         <v>7032</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="30" t="n">
         <v>652</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="32" t="n">
         <v>7684</v>
       </c>
     </row>
@@ -4001,268 +4219,268 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>63</v>
+      <c r="A3" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="29" t="n">
+        <v>66</v>
+      </c>
+      <c r="B7" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="29" t="n">
+        <v>67</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <v>47</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="30" t="n">
+        <v>68</v>
+      </c>
+      <c r="B9" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="29" t="n">
+        <v>69</v>
+      </c>
+      <c r="B10" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="30" t="n">
+        <v>70</v>
+      </c>
+      <c r="B11" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="29" t="n">
+        <v>71</v>
+      </c>
+      <c r="B12" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="32" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="30" t="n">
+        <v>72</v>
+      </c>
+      <c r="B13" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="29" t="n">
+        <v>73</v>
+      </c>
+      <c r="B14" s="30" t="n">
         <v>95</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="32" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="29" t="n">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D15" s="32" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="29" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="29" t="n">
+        <v>76</v>
+      </c>
+      <c r="B17" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="31" t="n">
+      <c r="D17" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="29" t="n">
+        <v>77</v>
+      </c>
+      <c r="B18" s="30" t="n">
         <v>52</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C18" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="31" t="n">
+      <c r="D18" s="32" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="29" t="n">
+        <v>78</v>
+      </c>
+      <c r="B19" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="n">
+      <c r="C19" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="31" t="n">
+      <c r="D19" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="29" t="n">
+        <v>79</v>
+      </c>
+      <c r="B20" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="30" t="n">
+      <c r="C20" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="31" t="n">
+      <c r="D20" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="29" t="n">
+        <v>80</v>
+      </c>
+      <c r="B21" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="30" t="n">
+      <c r="C21" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="31" t="n">
+      <c r="D21" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="29" t="n">
+        <v>81</v>
+      </c>
+      <c r="B22" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="30" t="n">
+      <c r="C22" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="31" t="n">
+      <c r="D22" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" s="30" t="n">
         <v>256</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D23" s="32" t="n">
         <v>266</v>
       </c>
     </row>
@@ -4298,27 +4516,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>81</v>
+      <c r="A3" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="27" t="s">
+    <row r="6" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="13"/>
@@ -4326,17 +4544,17 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="29" t="n">
+        <v>84</v>
+      </c>
+      <c r="B7" s="30" t="n">
         <v>3594</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>298</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>3892</v>
       </c>
       <c r="F7" s="13"/>
@@ -4346,17 +4564,17 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="29" t="n">
+        <v>85</v>
+      </c>
+      <c r="B8" s="30" t="n">
         <v>2414</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="31" t="n">
         <v>188</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>2602</v>
       </c>
       <c r="F8" s="13"/>
@@ -4366,17 +4584,17 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="30" t="n">
+        <v>76</v>
+      </c>
+      <c r="B9" s="31" t="n">
         <v>665</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>46</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>711</v>
       </c>
       <c r="F9" s="13"/>
@@ -4386,17 +4604,17 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="29" t="n">
+        <v>74</v>
+      </c>
+      <c r="B10" s="30" t="n">
         <v>3050</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="31" t="n">
         <v>54</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>3104</v>
       </c>
       <c r="F10" s="13"/>
@@ -4406,17 +4624,17 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="30" t="n">
+        <v>75</v>
+      </c>
+      <c r="B11" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="13"/>
@@ -4426,17 +4644,17 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="29" t="n">
+        <v>86</v>
+      </c>
+      <c r="B12" s="30" t="n">
         <v>3841</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="31" t="n">
+      <c r="D12" s="32" t="n">
         <v>3846</v>
       </c>
       <c r="F12" s="13"/>
@@ -4446,17 +4664,17 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="30" t="n">
+        <v>87</v>
+      </c>
+      <c r="B13" s="31" t="n">
         <v>199</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>213</v>
       </c>
       <c r="F13" s="13"/>
@@ -4466,17 +4684,17 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="29" t="n">
+        <v>88</v>
+      </c>
+      <c r="B14" s="30" t="n">
         <v>18803</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="30" t="n">
         <v>1383</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="32" t="n">
         <v>20186</v>
       </c>
       <c r="F14" s="13"/>
@@ -4486,17 +4704,17 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="29" t="n">
+        <v>71</v>
+      </c>
+      <c r="B15" s="30" t="n">
         <v>10361</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="30" t="n">
         <v>1552</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D15" s="32" t="n">
         <v>11913</v>
       </c>
       <c r="F15" s="13"/>
@@ -4506,17 +4724,17 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="29" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" s="30" t="n">
         <v>1258</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="32" t="n">
         <v>1290</v>
       </c>
       <c r="F16" s="13"/>
@@ -4526,17 +4744,17 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="30" t="n">
+        <v>68</v>
+      </c>
+      <c r="B17" s="31" t="n">
         <v>766</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="31" t="n">
         <v>79</v>
       </c>
-      <c r="D17" s="33" t="n">
+      <c r="D17" s="34" t="n">
         <v>845</v>
       </c>
       <c r="F17" s="13"/>
@@ -4546,17 +4764,17 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="30" t="n">
+        <v>89</v>
+      </c>
+      <c r="B18" s="31" t="n">
         <v>264</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C18" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="D18" s="33" t="n">
+      <c r="D18" s="34" t="n">
         <v>288</v>
       </c>
       <c r="F18" s="13"/>
@@ -4566,17 +4784,17 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" s="38" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="39" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="30" t="n">
+        <v>69</v>
+      </c>
+      <c r="B19" s="31" t="n">
         <v>724</v>
       </c>
-      <c r="C19" s="30" t="n">
+      <c r="C19" s="31" t="n">
         <v>108</v>
       </c>
-      <c r="D19" s="33" t="n">
+      <c r="D19" s="34" t="n">
         <v>832</v>
       </c>
       <c r="F19" s="13"/>
@@ -4586,17 +4804,17 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="29" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" s="30" t="n">
         <v>1852</v>
       </c>
-      <c r="C20" s="30" t="n">
+      <c r="C20" s="31" t="n">
         <v>125</v>
       </c>
-      <c r="D20" s="31" t="n">
+      <c r="D20" s="32" t="n">
         <v>1977</v>
       </c>
       <c r="F20" s="13"/>
@@ -4606,17 +4824,17 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="30" t="n">
+        <v>79</v>
+      </c>
+      <c r="B21" s="31" t="n">
         <v>540</v>
       </c>
-      <c r="C21" s="30" t="n">
+      <c r="C21" s="31" t="n">
         <v>76</v>
       </c>
-      <c r="D21" s="33" t="n">
+      <c r="D21" s="34" t="n">
         <v>616</v>
       </c>
       <c r="F21" s="13"/>
@@ -4626,17 +4844,17 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="B22" s="31" t="n">
         <v>69</v>
       </c>
-      <c r="C22" s="30" t="n">
+      <c r="C22" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="33" t="n">
+      <c r="D22" s="34" t="n">
         <v>75</v>
       </c>
       <c r="F22" s="13"/>
@@ -4646,17 +4864,17 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="30" t="n">
+        <v>81</v>
+      </c>
+      <c r="B23" s="31" t="n">
         <v>49</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="33" t="n">
+      <c r="D23" s="34" t="n">
         <v>55</v>
       </c>
       <c r="F23" s="13"/>
@@ -4666,17 +4884,17 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="23" t="n">
+    <row r="24" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="24" t="n">
         <v>48449</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="24" t="n">
         <v>3996</v>
       </c>
-      <c r="D24" s="24" t="n">
+      <c r="D24" s="25" t="n">
         <v>52445</v>
       </c>
       <c r="F24" s="13"/>

--- a/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
+++ b/ANALISIS Y VISUALIZACIÓN DE DATOS/Estadistica diciembre 2015.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t xml:space="preserve">ESTADÍSTICA PENITENCIARIA</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t xml:space="preserve">total nacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total de mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total hombres</t>
   </si>
   <si>
     <t xml:space="preserve">AÑO</t>
@@ -1083,7 +1089,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1341,8 +1347,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="21072007"/>
-        <c:axId val="99556673"/>
+        <c:axId val="69699083"/>
+        <c:axId val="9636123"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1484,11 +1490,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="31738245"/>
-        <c:axId val="633127"/>
+        <c:axId val="56233197"/>
+        <c:axId val="11587138"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21072007"/>
+        <c:axId val="69699083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,14 +1522,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99556673"/>
+        <c:crossAx val="9636123"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99556673"/>
+        <c:axId val="9636123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,11 +1566,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21072007"/>
+        <c:crossAx val="69699083"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="31738245"/>
+        <c:axId val="56233197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,14 +1598,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633127"/>
+        <c:crossAx val="11587138"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="633127"/>
+        <c:axId val="11587138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31738245"/>
+        <c:crossAx val="56233197"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2501,10 +2507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2518,7 +2524,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,6 +2553,12 @@
       <c r="H1" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2573,6 +2586,12 @@
         <f aca="false">G2-B2</f>
         <v>44396</v>
       </c>
+      <c r="I2" s="0" t="n">
+        <v>5587</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>61687</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -2600,6 +2619,12 @@
         <f aca="false">G3-B3</f>
         <v>47534</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>6006</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>67944</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2627,6 +2652,12 @@
         <f aca="false">G4-B4</f>
         <v>48917</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>6076</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>70003</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2654,6 +2685,12 @@
         <f aca="false">G5-B5</f>
         <v>48684</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>5940</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>69494</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -2681,6 +2718,12 @@
         <f aca="false">G6-B6</f>
         <v>46570</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>5417</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>65970</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2708,6 +2751,12 @@
         <f aca="false">G7-B7</f>
         <v>46056</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>5265</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>63772</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -2735,6 +2784,12 @@
         <f aca="false">G8-B8</f>
         <v>46089</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>5131</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>62273</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2762,6 +2817,12 @@
         <f aca="false">G9-B9</f>
         <v>45686</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>5020</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>60515</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2789,6 +2850,12 @@
         <f aca="false">G10-B10</f>
         <v>44535</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>4847</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>57910</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2816,6 +2883,12 @@
         <f aca="false">G11-B11</f>
         <v>42985</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>4457</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>55513</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2843,6 +2916,12 @@
         <f aca="false">G12-B12</f>
         <v>42816</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>4470</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>55107</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2869,6 +2948,12 @@
       <c r="H13" s="0" t="n">
         <f aca="false">G13-B13</f>
         <v>42628</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4476</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>54786</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +2989,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>17</v>
